--- a/OUTPUTS/PSL_TFR_Models.xlsx
+++ b/OUTPUTS/PSL_TFR_Models.xlsx
@@ -7,17 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="vif_test" r:id="rId3" sheetId="1"/>
-    <sheet name="model1_betas" r:id="rId4" sheetId="2"/>
-    <sheet name="model2_betas" r:id="rId5" sheetId="3"/>
-    <sheet name="model3_betas" r:id="rId6" sheetId="4"/>
-    <sheet name="model4_spatial_betas" r:id="rId7" sheetId="5"/>
-    <sheet name="model5_spatial_betas" r:id="rId8" sheetId="6"/>
+    <sheet name="model1_covs_betas" r:id="rId4" sheetId="2"/>
+    <sheet name="model2_xy_betas" r:id="rId5" sheetId="3"/>
+    <sheet name="model3_spatial_betas" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>VIF</t>
   </si>
@@ -40,7 +38,7 @@
     <t>pbf</t>
   </si>
   <si>
-    <t>educSecd.fem</t>
+    <t>educSecd_Terc.fem</t>
   </si>
   <si>
     <t>religPent</t>
@@ -53,6 +51,9 @@
   </si>
   <si>
     <t>share_adolbirths_2010</t>
+  </si>
+  <si>
+    <t>share_fem_politics</t>
   </si>
   <si>
     <t>x</t>
@@ -134,7 +135,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.917225873297752</v>
+        <v>4.870165550753337</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -142,7 +143,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.527514930699355</v>
+        <v>2.5533826013523875</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -150,7 +151,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.7464325834171224</v>
+        <v>1.7989722559147296</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -158,7 +159,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.2093040076491455</v>
+        <v>1.2441142063108708</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -166,7 +167,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.778442644235618</v>
+        <v>10.938690743038775</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -174,7 +175,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.6945954526832874</v>
+        <v>4.690910806047358</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -182,7 +183,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.053711100626131</v>
+        <v>2.009804731577827</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -190,7 +191,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2.45423210342694</v>
+        <v>2.3685453806927894</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -198,7 +199,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.8841678955043109</v>
+        <v>1.8294799829460018</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -206,7 +207,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.943611669403919</v>
+        <v>4.089383783420895</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -214,7 +215,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.563013967195293</v>
+        <v>1.2440403338611434</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -222,10 +223,18 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4.978508645677001</v>
+        <v>3.662040030342987</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5.047120154279467</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -243,30 +252,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>0.82097</v>
+        <v>0.82354</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.40318</v>
+        <v>0.87753</v>
       </c>
     </row>
     <row r="3">
@@ -274,13 +283,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.16054</v>
+        <v>-0.00501</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>0.63967</v>
       </c>
       <c r="D3" t="n">
-        <v>0.40318</v>
+        <v>0.87753</v>
       </c>
     </row>
     <row r="4">
@@ -288,13 +297,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.46835</v>
+        <v>-0.82234</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>0.08709</v>
       </c>
       <c r="D4" t="n">
-        <v>0.40318</v>
+        <v>0.87753</v>
       </c>
     </row>
     <row r="5">
@@ -302,13 +311,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.51249</v>
+        <v>-0.43472</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0</v>
+        <v>0.01048</v>
       </c>
       <c r="D5" t="n">
-        <v>0.40318</v>
+        <v>0.87753</v>
       </c>
     </row>
     <row r="6">
@@ -316,13 +325,111 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0061</v>
+        <v>-0.00959</v>
       </c>
       <c r="C6" t="n">
-        <v>0.38205</v>
+        <v>0.00621</v>
       </c>
       <c r="D6" t="n">
-        <v>0.40318</v>
+        <v>0.87753</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.15132</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.87753</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.11536</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09983</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.87753</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.45256</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.87753</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.34623</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01304</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.87753</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.19304</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01983</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.87753</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.01846</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.87178</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.87753</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.95707</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.87753</v>
       </c>
     </row>
   </sheetData>
@@ -340,30 +447,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>0.82043</v>
+        <v>0.6441</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8753</v>
+        <v>0.88307</v>
       </c>
     </row>
     <row r="3">
@@ -371,13 +478,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.00789</v>
+        <v>-0.02867</v>
       </c>
       <c r="C3" t="n">
-        <v>0.43999</v>
+        <v>0.01291</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8753</v>
+        <v>0.88307</v>
       </c>
     </row>
     <row r="4">
@@ -385,13 +492,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.16221</v>
+        <v>-0.34424</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01223</v>
+        <v>0.48095</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8753</v>
+        <v>0.88307</v>
       </c>
     </row>
     <row r="5">
@@ -399,13 +506,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.47997</v>
+        <v>-0.01674</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00424</v>
+        <v>0.9292</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8753</v>
+        <v>0.88307</v>
       </c>
     </row>
     <row r="6">
@@ -413,13 +520,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.00973</v>
+        <v>-0.00906</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00409</v>
+        <v>0.00831</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8753</v>
+        <v>0.88307</v>
       </c>
     </row>
     <row r="7">
@@ -427,13 +534,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.17608</v>
+        <v>-1.01665</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8753</v>
+        <v>0.88307</v>
       </c>
     </row>
     <row r="8">
@@ -441,13 +548,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.37846</v>
+        <v>-0.15267</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0</v>
+        <v>0.0324</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8753</v>
+        <v>0.88307</v>
       </c>
     </row>
     <row r="9">
@@ -455,13 +562,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.50792</v>
+        <v>0.46189</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8753</v>
+        <v>0.88307</v>
       </c>
     </row>
     <row r="10">
@@ -469,13 +576,83 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.36702</v>
+        <v>-0.38584</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00893</v>
+        <v>0.00696</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8753</v>
+        <v>0.88307</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.10164</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.22124</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.88307</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.09836</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.38963</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.88307</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.01893</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.77596</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.88307</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.00358</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.88307</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.8E-4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.80334</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.88307</v>
       </c>
     </row>
   </sheetData>
@@ -493,30 +670,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" t="n">
-        <v>0.85093</v>
+        <v>0.49442</v>
       </c>
       <c r="C2" t="n">
         <v>0.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.87592</v>
       </c>
     </row>
     <row r="3">
@@ -524,13 +695,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.00539</v>
+        <v>-0.05776</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6181</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.87592</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -538,13 +706,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.10761</v>
+        <v>-0.0394</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02049</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.87592</v>
+        <v>0.94278</v>
       </c>
     </row>
     <row r="5">
@@ -552,13 +717,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.45187</v>
+        <v>-0.10851</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00738</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.87592</v>
+        <v>0.61717</v>
       </c>
     </row>
     <row r="6">
@@ -566,13 +728,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0091</v>
+        <v>-0.00599</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00877</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.87592</v>
+        <v>0.01747</v>
       </c>
     </row>
     <row r="7">
@@ -580,13 +739,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.1494</v>
+        <v>-0.72232</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.87592</v>
       </c>
     </row>
     <row r="8">
@@ -594,13 +750,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.31166</v>
+        <v>-0.05966</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00151</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.87592</v>
+        <v>0.34279</v>
       </c>
     </row>
     <row r="9">
@@ -608,13 +761,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.50836</v>
+        <v>0.31943</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.87592</v>
+        <v>2.0E-5</v>
       </c>
     </row>
     <row r="10">
@@ -622,13 +772,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.37024</v>
+        <v>-0.38393</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00956</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.87592</v>
+        <v>0.00743</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +783,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.12319</v>
+        <v>-0.09487</v>
       </c>
       <c r="C11" t="n">
-        <v>0.14571</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.87592</v>
+        <v>0.21263</v>
       </c>
     </row>
     <row r="12">
@@ -650,303 +794,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.06701</v>
+        <v>-0.2124</v>
       </c>
       <c r="C12" t="n">
-        <v>0.55464</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.87592</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.44543</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.06662</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.18686</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.73358</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.14421</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.50877</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.00612</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.01276</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.74537</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.14435</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0584</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.28963</v>
-      </c>
-      <c r="C9" t="n">
-        <v>6.0E-5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.36867</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.01106</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.00705</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-5.3E-4</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.58073</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.4929</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-0.05962</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-0.13921</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.79863</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-0.11659</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.59107</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-0.00623</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.01176</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-0.70787</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.14742</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09805</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.33566</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1.0E-5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>-0.3938</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0064</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="n">
-        <v>-0.05913</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.43086</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.25759</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.00799</v>
+        <v>0.03389</v>
       </c>
     </row>
     <row r="13">
@@ -954,10 +805,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.00713</v>
+        <v>0.03309</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>0.51361</v>
       </c>
     </row>
     <row r="14">
@@ -965,10 +816,21 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-4.0E-4</v>
+        <v>-0.0068</v>
       </c>
       <c r="C14" t="n">
-        <v>0.67542</v>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-3.5E-4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.71345</v>
       </c>
     </row>
   </sheetData>
